--- a/database/industries/methanol/shekhark/product/quarterly.xlsx
+++ b/database/industries/methanol/shekhark/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekhark\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekhark\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBE41A6-D980-4DC1-99B7-9B17E336D8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB6CB97-771A-4A1A-AC86-3FC818808650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="39">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1399/09</t>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>گوگرد</t>
@@ -590,12 +590,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -610,7 +610,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -627,7 +627,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -644,7 +644,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -659,7 +659,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -693,7 +693,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -708,7 +708,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -745,7 +745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -760,7 +760,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -769,17 +769,17 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>17298</v>
+        <v>14509</v>
       </c>
       <c r="F10" s="9">
-        <v>14509</v>
+        <v>23287</v>
       </c>
       <c r="G10" s="9">
-        <v>23287</v>
-      </c>
-      <c r="H10" s="9">
         <v>20066</v>
       </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I10" s="9" t="s">
         <v>17</v>
       </c>
@@ -799,7 +799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -816,21 +816,21 @@
       <c r="G11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>17</v>
+      <c r="H11" s="11">
+        <v>19813</v>
       </c>
       <c r="I11" s="11">
-        <v>19813</v>
+        <v>22717</v>
       </c>
       <c r="J11" s="11">
-        <v>22717</v>
+        <v>24243</v>
       </c>
       <c r="K11" s="11">
-        <v>24243</v>
-      </c>
-      <c r="L11" s="11">
         <v>25540</v>
       </c>
+      <c r="L11" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="M11" s="11" t="s">
         <v>17</v>
       </c>
@@ -838,7 +838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -847,17 +847,17 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>174868</v>
+        <v>143555</v>
       </c>
       <c r="F12" s="9">
-        <v>143555</v>
+        <v>155184</v>
       </c>
       <c r="G12" s="9">
-        <v>155184</v>
-      </c>
-      <c r="H12" s="9">
         <v>102853</v>
       </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I12" s="9" t="s">
         <v>17</v>
       </c>
@@ -877,7 +877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -894,21 +894,21 @@
       <c r="G13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>17</v>
+      <c r="H13" s="11">
+        <v>180146</v>
       </c>
       <c r="I13" s="11">
-        <v>180146</v>
+        <v>173864</v>
       </c>
       <c r="J13" s="11">
-        <v>173864</v>
+        <v>168576</v>
       </c>
       <c r="K13" s="11">
-        <v>168576</v>
-      </c>
-      <c r="L13" s="11">
         <v>159252</v>
       </c>
+      <c r="L13" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="M13" s="11" t="s">
         <v>17</v>
       </c>
@@ -916,7 +916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
@@ -933,29 +933,29 @@
       <c r="G14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>17</v>
+      <c r="H14" s="9">
+        <v>30832</v>
       </c>
       <c r="I14" s="9">
-        <v>30832</v>
+        <v>24922</v>
       </c>
       <c r="J14" s="9">
-        <v>24922</v>
+        <v>24051</v>
       </c>
       <c r="K14" s="9">
-        <v>24051</v>
+        <v>27054</v>
       </c>
       <c r="L14" s="9">
-        <v>27054</v>
+        <v>25760</v>
       </c>
       <c r="M14" s="9">
-        <v>25760</v>
+        <v>32298</v>
       </c>
       <c r="N14" s="9">
-        <v>32298</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33801</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
@@ -964,17 +964,17 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>24541</v>
+        <v>17215</v>
       </c>
       <c r="F15" s="11">
-        <v>17215</v>
+        <v>28946</v>
       </c>
       <c r="G15" s="11">
-        <v>28946</v>
-      </c>
-      <c r="H15" s="11">
         <v>28459</v>
       </c>
+      <c r="H15" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I15" s="11" t="s">
         <v>17</v>
       </c>
@@ -994,7 +994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
@@ -1011,29 +1011,29 @@
       <c r="G16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>17</v>
+      <c r="H16" s="9">
+        <v>21508</v>
       </c>
       <c r="I16" s="9">
-        <v>21508</v>
+        <v>17827</v>
       </c>
       <c r="J16" s="9">
-        <v>17827</v>
+        <v>17376</v>
       </c>
       <c r="K16" s="9">
-        <v>17376</v>
+        <v>18169</v>
       </c>
       <c r="L16" s="9">
-        <v>18169</v>
+        <v>18180</v>
       </c>
       <c r="M16" s="9">
-        <v>18180</v>
+        <v>26407</v>
       </c>
       <c r="N16" s="9">
-        <v>26407</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27263</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1042,17 +1042,17 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>19459</v>
+        <v>14035</v>
       </c>
       <c r="F17" s="11">
-        <v>14035</v>
+        <v>22705</v>
       </c>
       <c r="G17" s="11">
-        <v>22705</v>
-      </c>
-      <c r="H17" s="11">
         <v>21190</v>
       </c>
+      <c r="H17" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I17" s="11" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1081,17 +1081,17 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>20948</v>
+        <v>13988</v>
       </c>
       <c r="F18" s="9">
-        <v>13988</v>
+        <v>20053</v>
       </c>
       <c r="G18" s="9">
-        <v>20053</v>
-      </c>
-      <c r="H18" s="9">
         <v>18883</v>
       </c>
+      <c r="H18" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I18" s="9" t="s">
         <v>17</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
@@ -1128,18 +1128,18 @@
       <c r="G19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>17</v>
+      <c r="H19" s="11">
+        <v>25435</v>
       </c>
       <c r="I19" s="11">
-        <v>25435</v>
+        <v>21575</v>
       </c>
       <c r="J19" s="11">
-        <v>21575</v>
-      </c>
-      <c r="K19" s="11">
         <v>17601</v>
       </c>
+      <c r="K19" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L19" s="11" t="s">
         <v>17</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>23</v>
       </c>
@@ -1165,14 +1165,14 @@
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>17</v>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
       </c>
       <c r="K20" s="9">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
@@ -1213,20 +1213,20 @@
       <c r="J21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="11" t="s">
-        <v>17</v>
+      <c r="K21" s="11">
+        <v>23498</v>
       </c>
       <c r="L21" s="11">
-        <v>23498</v>
+        <v>21759</v>
       </c>
       <c r="M21" s="11">
-        <v>21759</v>
+        <v>29698</v>
       </c>
       <c r="N21" s="11">
-        <v>29698</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26908</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
@@ -1255,17 +1255,17 @@
       <c r="K22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>17</v>
+      <c r="L22" s="9">
+        <v>172234</v>
       </c>
       <c r="M22" s="9">
-        <v>172234</v>
+        <v>170061</v>
       </c>
       <c r="N22" s="9">
-        <v>170061</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>170375</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
@@ -1294,54 +1294,54 @@
       <c r="K23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="11" t="s">
-        <v>17</v>
+      <c r="L23" s="11">
+        <v>25617</v>
       </c>
       <c r="M23" s="11">
-        <v>25617</v>
+        <v>24286</v>
       </c>
       <c r="N23" s="11">
-        <v>24286</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23875</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>257114</v>
+        <v>203302</v>
       </c>
       <c r="F24" s="13">
-        <v>203302</v>
+        <v>250175</v>
       </c>
       <c r="G24" s="13">
-        <v>250175</v>
+        <v>191451</v>
       </c>
       <c r="H24" s="13">
-        <v>191451</v>
+        <v>277734</v>
       </c>
       <c r="I24" s="13">
-        <v>277734</v>
+        <v>260905</v>
       </c>
       <c r="J24" s="13">
-        <v>260905</v>
+        <v>251847</v>
       </c>
       <c r="K24" s="13">
-        <v>251847</v>
+        <v>253513</v>
       </c>
       <c r="L24" s="13">
-        <v>253513</v>
+        <v>263550</v>
       </c>
       <c r="M24" s="13">
-        <v>263550</v>
+        <v>282750</v>
       </c>
       <c r="N24" s="13">
-        <v>282750</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>282222</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1356,7 +1356,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1371,7 +1371,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1386,7 +1386,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>28</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1438,7 +1438,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>15</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>15</v>
       </c>
@@ -1486,29 +1486,29 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>0</v>
+        <v>30922</v>
       </c>
       <c r="F31" s="11">
-        <v>30922</v>
+        <v>26952</v>
       </c>
       <c r="G31" s="11">
-        <v>26952</v>
+        <v>0</v>
       </c>
       <c r="H31" s="11">
-        <v>0</v>
+        <v>33839</v>
       </c>
       <c r="I31" s="11">
-        <v>33839</v>
-      </c>
-      <c r="J31" s="11">
         <v>34479</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="11">
+      <c r="J31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="11">
         <v>32002</v>
       </c>
+      <c r="L31" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="M31" s="11" t="s">
         <v>17</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>29</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>29</v>
       </c>
@@ -1569,8 +1569,8 @@
       <c r="F33" s="11">
         <v>0</v>
       </c>
-      <c r="G33" s="11">
-        <v>0</v>
+      <c r="G33" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>17</v>
@@ -1594,7 +1594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>19</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>19</v>
       </c>
@@ -1642,29 +1642,29 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>149065</v>
+        <v>191469</v>
       </c>
       <c r="F35" s="11">
-        <v>191469</v>
+        <v>216913</v>
       </c>
       <c r="G35" s="11">
-        <v>216913</v>
+        <v>120994</v>
       </c>
       <c r="H35" s="11">
-        <v>120994</v>
+        <v>193858</v>
       </c>
       <c r="I35" s="11">
-        <v>193858</v>
-      </c>
-      <c r="J35" s="11">
         <v>75828</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="11">
+      <c r="J35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="11">
         <v>107272</v>
       </c>
+      <c r="L35" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="M35" s="11" t="s">
         <v>17</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>20</v>
       </c>
@@ -1681,37 +1681,37 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>17667</v>
+        <v>19292</v>
       </c>
       <c r="F36" s="9">
-        <v>19292</v>
+        <v>21972</v>
       </c>
       <c r="G36" s="9">
-        <v>21972</v>
+        <v>47304</v>
       </c>
       <c r="H36" s="9">
-        <v>47304</v>
+        <v>17862</v>
       </c>
       <c r="I36" s="9">
-        <v>17862</v>
-      </c>
-      <c r="J36" s="9">
         <v>25479</v>
       </c>
-      <c r="K36" s="9" t="s">
-        <v>17</v>
+      <c r="J36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="9">
+        <v>25721</v>
       </c>
       <c r="L36" s="9">
-        <v>25721</v>
+        <v>25668</v>
       </c>
       <c r="M36" s="9">
-        <v>25668</v>
+        <v>26760</v>
       </c>
       <c r="N36" s="9">
-        <v>26760</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33136</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>21</v>
       </c>
@@ -1720,37 +1720,37 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>10777</v>
+        <v>14672</v>
       </c>
       <c r="F37" s="11">
-        <v>14672</v>
+        <v>19885</v>
       </c>
       <c r="G37" s="11">
-        <v>19885</v>
+        <v>34105</v>
       </c>
       <c r="H37" s="11">
-        <v>34105</v>
+        <v>14000</v>
       </c>
       <c r="I37" s="11">
-        <v>14000</v>
-      </c>
-      <c r="J37" s="11">
         <v>18732</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>17</v>
+      <c r="J37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="11">
+        <v>15027</v>
       </c>
       <c r="L37" s="11">
-        <v>15027</v>
+        <v>14995</v>
       </c>
       <c r="M37" s="11">
-        <v>14995</v>
+        <v>29809</v>
       </c>
       <c r="N37" s="11">
-        <v>29809</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15932</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>22</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>22</v>
       </c>
@@ -1798,26 +1798,26 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>25687</v>
+        <v>0</v>
       </c>
       <c r="F39" s="11">
-        <v>0</v>
+        <v>20112</v>
       </c>
       <c r="G39" s="11">
-        <v>20112</v>
+        <v>22401</v>
       </c>
       <c r="H39" s="11">
-        <v>22401</v>
+        <v>22028</v>
       </c>
       <c r="I39" s="11">
-        <v>22028</v>
+        <v>25107</v>
       </c>
       <c r="J39" s="11">
-        <v>25107</v>
-      </c>
-      <c r="K39" s="11">
         <v>20018</v>
       </c>
+      <c r="K39" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L39" s="11" t="s">
         <v>17</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>23</v>
       </c>
@@ -1840,20 +1840,20 @@
       <c r="F40" s="9">
         <v>0</v>
       </c>
-      <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="9">
-        <v>0</v>
+      <c r="G40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="9" t="s">
-        <v>17</v>
+      <c r="K40" s="9">
+        <v>0</v>
       </c>
       <c r="L40" s="9">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>24</v>
       </c>
@@ -1891,20 +1891,20 @@
       <c r="J41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K41" s="11" t="s">
-        <v>17</v>
+      <c r="K41" s="11">
+        <v>30221</v>
       </c>
       <c r="L41" s="11">
-        <v>30221</v>
+        <v>9266</v>
       </c>
       <c r="M41" s="11">
-        <v>9266</v>
+        <v>37301</v>
       </c>
       <c r="N41" s="11">
-        <v>37301</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28768</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>25</v>
       </c>
@@ -1933,17 +1933,17 @@
       <c r="K42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L42" s="9" t="s">
-        <v>17</v>
+      <c r="L42" s="9">
+        <v>225442</v>
       </c>
       <c r="M42" s="9">
-        <v>225442</v>
+        <v>198647</v>
       </c>
       <c r="N42" s="9">
-        <v>198647</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>185789</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>26</v>
       </c>
@@ -1972,54 +1972,54 @@
       <c r="K43" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L43" s="11" t="s">
-        <v>17</v>
+      <c r="L43" s="11">
+        <v>0</v>
       </c>
       <c r="M43" s="11">
-        <v>0</v>
+        <v>28010</v>
       </c>
       <c r="N43" s="11">
-        <v>28010</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31045</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>203196</v>
+        <v>256355</v>
       </c>
       <c r="F44" s="13">
-        <v>256355</v>
+        <v>305834</v>
       </c>
       <c r="G44" s="13">
-        <v>305834</v>
+        <v>224804</v>
       </c>
       <c r="H44" s="13">
-        <v>224804</v>
+        <v>281587</v>
       </c>
       <c r="I44" s="13">
-        <v>281587</v>
+        <v>179625</v>
       </c>
       <c r="J44" s="13">
-        <v>179625</v>
+        <v>20018</v>
       </c>
       <c r="K44" s="13">
-        <v>20018</v>
+        <v>210243</v>
       </c>
       <c r="L44" s="13">
-        <v>210243</v>
+        <v>275371</v>
       </c>
       <c r="M44" s="13">
-        <v>275371</v>
+        <v>320527</v>
       </c>
       <c r="N44" s="13">
-        <v>320527</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>294670</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2034,7 +2034,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2049,7 +2049,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2064,7 +2064,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>31</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2116,7 +2116,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>15</v>
       </c>
@@ -2125,29 +2125,29 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>0</v>
+        <v>404657</v>
       </c>
       <c r="F50" s="9">
-        <v>404657</v>
+        <v>595181</v>
       </c>
       <c r="G50" s="9">
-        <v>595181</v>
+        <v>0</v>
       </c>
       <c r="H50" s="9">
-        <v>0</v>
+        <v>1067371</v>
       </c>
       <c r="I50" s="9">
-        <v>1067371</v>
-      </c>
-      <c r="J50" s="9">
         <v>1498293</v>
       </c>
-      <c r="K50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L50" s="9">
+      <c r="J50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="9">
         <v>3200464</v>
       </c>
+      <c r="L50" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M50" s="9" t="s">
         <v>17</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>29</v>
       </c>
@@ -2169,8 +2169,8 @@
       <c r="F51" s="11">
         <v>0</v>
       </c>
-      <c r="G51" s="11">
-        <v>0</v>
+      <c r="G51" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>17</v>
@@ -2194,7 +2194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>19</v>
       </c>
@@ -2203,29 +2203,29 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>5320785</v>
+        <v>10829863</v>
       </c>
       <c r="F52" s="9">
-        <v>10829863</v>
+        <v>16487296</v>
       </c>
       <c r="G52" s="9">
-        <v>16487296</v>
+        <v>8369642</v>
       </c>
       <c r="H52" s="9">
-        <v>8369642</v>
+        <v>16044017</v>
       </c>
       <c r="I52" s="9">
-        <v>16044017</v>
-      </c>
-      <c r="J52" s="9">
         <v>6401260</v>
       </c>
-      <c r="K52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L52" s="9">
+      <c r="J52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="9">
         <v>9426909</v>
       </c>
+      <c r="L52" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M52" s="9" t="s">
         <v>17</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>20</v>
       </c>
@@ -2242,37 +2242,37 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>941754</v>
+        <v>1423899</v>
       </c>
       <c r="F53" s="11">
-        <v>1423899</v>
+        <v>2450497</v>
       </c>
       <c r="G53" s="11">
-        <v>2450497</v>
+        <v>3880592</v>
       </c>
       <c r="H53" s="11">
-        <v>3880592</v>
+        <v>2491663</v>
       </c>
       <c r="I53" s="11">
-        <v>2491663</v>
-      </c>
-      <c r="J53" s="11">
         <v>4625080</v>
       </c>
-      <c r="K53" s="11" t="s">
-        <v>17</v>
+      <c r="J53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="11">
+        <v>4325160</v>
       </c>
       <c r="L53" s="11">
-        <v>4325160</v>
+        <v>3564632</v>
       </c>
       <c r="M53" s="11">
-        <v>3564632</v>
+        <v>3569570</v>
       </c>
       <c r="N53" s="11">
-        <v>3569570</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6089180</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>21</v>
       </c>
@@ -2281,37 +2281,37 @@
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
-        <v>622535</v>
+        <v>1115645</v>
       </c>
       <c r="F54" s="9">
-        <v>1115645</v>
+        <v>2343352</v>
       </c>
       <c r="G54" s="9">
-        <v>2343352</v>
+        <v>2859051</v>
       </c>
       <c r="H54" s="9">
-        <v>2859051</v>
+        <v>1960595</v>
       </c>
       <c r="I54" s="9">
-        <v>1960595</v>
-      </c>
-      <c r="J54" s="9">
         <v>3533944</v>
       </c>
-      <c r="K54" s="9" t="s">
-        <v>17</v>
+      <c r="J54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="9">
+        <v>2508882</v>
       </c>
       <c r="L54" s="9">
-        <v>2508882</v>
+        <v>2142119</v>
       </c>
       <c r="M54" s="9">
-        <v>2142119</v>
+        <v>4010713</v>
       </c>
       <c r="N54" s="9">
-        <v>4010713</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2853296</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>22</v>
       </c>
@@ -2320,26 +2320,26 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>1447163</v>
+        <v>0</v>
       </c>
       <c r="F55" s="11">
-        <v>0</v>
+        <v>2169700</v>
       </c>
       <c r="G55" s="11">
-        <v>2169700</v>
+        <v>2514363</v>
       </c>
       <c r="H55" s="11">
-        <v>2514363</v>
+        <v>2792654</v>
       </c>
       <c r="I55" s="11">
-        <v>2792654</v>
+        <v>3885520</v>
       </c>
       <c r="J55" s="11">
-        <v>3885520</v>
-      </c>
-      <c r="K55" s="11">
         <v>3364568</v>
       </c>
+      <c r="K55" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L55" s="11" t="s">
         <v>17</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>23</v>
       </c>
@@ -2364,20 +2364,20 @@
       <c r="F56" s="9">
         <v>0</v>
       </c>
-      <c r="G56" s="9">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0</v>
+      <c r="G56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="9">
+        <v>0</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J56" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="9" t="s">
-        <v>17</v>
+      <c r="K56" s="9">
+        <v>0</v>
       </c>
       <c r="L56" s="9">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>24</v>
       </c>
@@ -2415,20 +2415,20 @@
       <c r="J57" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K57" s="11" t="s">
-        <v>17</v>
+      <c r="K57" s="11">
+        <v>5776639</v>
       </c>
       <c r="L57" s="11">
-        <v>5776639</v>
+        <v>1298480</v>
       </c>
       <c r="M57" s="11">
-        <v>1298480</v>
+        <v>5599822</v>
       </c>
       <c r="N57" s="11">
-        <v>5599822</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5333789</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>25</v>
       </c>
@@ -2457,17 +2457,17 @@
       <c r="K58" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L58" s="9" t="s">
-        <v>17</v>
+      <c r="L58" s="9">
+        <v>16205791</v>
       </c>
       <c r="M58" s="9">
-        <v>16205791</v>
+        <v>16449455</v>
       </c>
       <c r="N58" s="9">
-        <v>16449455</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17592268</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>26</v>
       </c>
@@ -2496,54 +2496,54 @@
       <c r="K59" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L59" s="11" t="s">
-        <v>17</v>
+      <c r="L59" s="11">
+        <v>-166</v>
       </c>
       <c r="M59" s="11">
-        <v>-166</v>
+        <v>630300</v>
       </c>
       <c r="N59" s="11">
-        <v>630300</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1221025</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>8332237</v>
+        <v>13774064</v>
       </c>
       <c r="F60" s="13">
-        <v>13774064</v>
+        <v>24046026</v>
       </c>
       <c r="G60" s="13">
-        <v>24046026</v>
+        <v>17623648</v>
       </c>
       <c r="H60" s="13">
-        <v>17623648</v>
+        <v>24356300</v>
       </c>
       <c r="I60" s="13">
-        <v>24356300</v>
+        <v>19944097</v>
       </c>
       <c r="J60" s="13">
-        <v>19944097</v>
+        <v>3364568</v>
       </c>
       <c r="K60" s="13">
-        <v>3364568</v>
+        <v>25238054</v>
       </c>
       <c r="L60" s="13">
-        <v>25238054</v>
+        <v>23210856</v>
       </c>
       <c r="M60" s="13">
-        <v>23210856</v>
+        <v>30259860</v>
       </c>
       <c r="N60" s="13">
-        <v>30259860</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33089558</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2558,7 +2558,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2573,7 +2573,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2588,7 +2588,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>33</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2640,7 +2640,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>15</v>
       </c>
@@ -2648,30 +2648,30 @@
         <v>34</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>17</v>
+      <c r="E66" s="9">
+        <v>13086379</v>
       </c>
       <c r="F66" s="9">
-        <v>13086379</v>
-      </c>
-      <c r="G66" s="9">
         <v>22082999</v>
       </c>
-      <c r="H66" s="9" t="s">
-        <v>17</v>
+      <c r="G66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="9">
+        <v>31542628</v>
       </c>
       <c r="I66" s="9">
-        <v>31542628</v>
+        <v>43455234</v>
       </c>
       <c r="J66" s="9">
-        <v>43455234</v>
+        <v>66981359</v>
       </c>
       <c r="K66" s="9">
-        <v>66981359</v>
-      </c>
-      <c r="L66" s="9">
         <v>100008249</v>
       </c>
+      <c r="L66" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M66" s="9" t="s">
         <v>17</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>29</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>19</v>
       </c>
@@ -2727,29 +2727,29 @@
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
-        <v>35694395</v>
+        <v>56561966</v>
       </c>
       <c r="F68" s="9">
-        <v>56561966</v>
+        <v>76008796</v>
       </c>
       <c r="G68" s="9">
-        <v>76008796</v>
+        <v>69174025</v>
       </c>
       <c r="H68" s="9">
-        <v>69174025</v>
+        <v>82761697</v>
       </c>
       <c r="I68" s="9">
-        <v>82761697</v>
+        <v>84418157</v>
       </c>
       <c r="J68" s="9">
-        <v>84418157</v>
+        <v>79384791</v>
       </c>
       <c r="K68" s="9">
-        <v>79384791</v>
-      </c>
-      <c r="L68" s="9">
         <v>87878561</v>
       </c>
+      <c r="L68" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M68" s="9" t="s">
         <v>17</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>20</v>
       </c>
@@ -2766,37 +2766,37 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>53305824</v>
+        <v>73807744</v>
       </c>
       <c r="F69" s="11">
-        <v>73807744</v>
+        <v>111528172</v>
       </c>
       <c r="G69" s="11">
-        <v>111528172</v>
+        <v>82035177</v>
       </c>
       <c r="H69" s="11">
-        <v>82035177</v>
+        <v>139495185</v>
       </c>
       <c r="I69" s="11">
-        <v>139495185</v>
+        <v>181525217</v>
       </c>
       <c r="J69" s="11">
-        <v>181525217</v>
+        <v>181633676</v>
       </c>
       <c r="K69" s="11">
-        <v>181633676</v>
+        <v>168156759</v>
       </c>
       <c r="L69" s="11">
-        <v>168156759</v>
+        <v>138874552</v>
       </c>
       <c r="M69" s="11">
-        <v>138874552</v>
+        <v>133392003</v>
       </c>
       <c r="N69" s="11">
-        <v>133392003</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>183763279</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>21</v>
       </c>
@@ -2805,37 +2805,37 @@
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
-        <v>57765148</v>
+        <v>76039054</v>
       </c>
       <c r="F70" s="9">
-        <v>76039054</v>
+        <v>117845210</v>
       </c>
       <c r="G70" s="9">
-        <v>117845210</v>
+        <v>83830846</v>
       </c>
       <c r="H70" s="9">
-        <v>83830846</v>
+        <v>140042500</v>
       </c>
       <c r="I70" s="9">
-        <v>140042500</v>
+        <v>188658125</v>
       </c>
       <c r="J70" s="9">
-        <v>188658125</v>
+        <v>183545935</v>
       </c>
       <c r="K70" s="9">
-        <v>183545935</v>
+        <v>166958275</v>
       </c>
       <c r="L70" s="9">
-        <v>166958275</v>
+        <v>142855552</v>
       </c>
       <c r="M70" s="9">
-        <v>142855552</v>
+        <v>134547050</v>
       </c>
       <c r="N70" s="9">
-        <v>134547050</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>179092142</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>22</v>
       </c>
@@ -2843,27 +2843,27 @@
         <v>34</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="11">
-        <v>56338342</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>17</v>
+      <c r="E71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="11">
+        <v>107880867</v>
       </c>
       <c r="G71" s="11">
-        <v>107880867</v>
+        <v>112243337</v>
       </c>
       <c r="H71" s="11">
-        <v>112243337</v>
+        <v>126777465</v>
       </c>
       <c r="I71" s="11">
-        <v>126777465</v>
+        <v>154758434</v>
       </c>
       <c r="J71" s="11">
-        <v>154758434</v>
-      </c>
-      <c r="K71" s="11">
         <v>168077131</v>
       </c>
+      <c r="K71" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L71" s="11" t="s">
         <v>17</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>23</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>24</v>
       </c>
@@ -2939,20 +2939,20 @@
       <c r="J73" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K73" s="11" t="s">
-        <v>17</v>
+      <c r="K73" s="11">
+        <v>191146521</v>
       </c>
       <c r="L73" s="11">
-        <v>191146521</v>
+        <v>140133823</v>
       </c>
       <c r="M73" s="11">
-        <v>140133823</v>
+        <v>150125251</v>
       </c>
       <c r="N73" s="11">
-        <v>150125251</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>185407015</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>25</v>
       </c>
@@ -2981,17 +2981,17 @@
       <c r="K74" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L74" s="9" t="s">
-        <v>17</v>
+      <c r="L74" s="9">
+        <v>71884525</v>
       </c>
       <c r="M74" s="9">
-        <v>71884525</v>
+        <v>82807468</v>
       </c>
       <c r="N74" s="9">
-        <v>82807468</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>94689503</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>26</v>
       </c>
@@ -3023,14 +3023,14 @@
       <c r="L75" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M75" s="11" t="s">
-        <v>17</v>
+      <c r="M75" s="11">
+        <v>22502678</v>
       </c>
       <c r="N75" s="11">
-        <v>22502678</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39330810</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3045,7 +3045,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3060,7 +3060,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3075,7 +3075,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>37</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3127,7 +3127,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>15</v>
       </c>
@@ -3136,29 +3136,29 @@
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
-        <v>0</v>
+        <v>-340578</v>
       </c>
       <c r="F81" s="9">
-        <v>-340578</v>
+        <v>-451520</v>
       </c>
       <c r="G81" s="9">
-        <v>-451520</v>
+        <v>0</v>
       </c>
       <c r="H81" s="9">
-        <v>0</v>
+        <v>-740759</v>
       </c>
       <c r="I81" s="9">
-        <v>-740759</v>
+        <v>-2332546</v>
       </c>
       <c r="J81" s="9">
-        <v>-2332546</v>
+        <v>-2052261</v>
       </c>
       <c r="K81" s="9">
-        <v>-2052261</v>
-      </c>
-      <c r="L81" s="9">
         <v>-2219129</v>
       </c>
+      <c r="L81" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M81" s="9" t="s">
         <v>17</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>29</v>
       </c>
@@ -3180,8 +3180,8 @@
       <c r="F82" s="11">
         <v>0</v>
       </c>
-      <c r="G82" s="11">
-        <v>0</v>
+      <c r="G82" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>17</v>
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>19</v>
       </c>
@@ -3214,29 +3214,29 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <v>-1213531</v>
+        <v>-2899415</v>
       </c>
       <c r="F83" s="9">
-        <v>-2899415</v>
+        <v>-4159234</v>
       </c>
       <c r="G83" s="9">
-        <v>-4159234</v>
+        <v>-2919029</v>
       </c>
       <c r="H83" s="9">
-        <v>-2919029</v>
+        <v>-9230684</v>
       </c>
       <c r="I83" s="9">
-        <v>-9230684</v>
+        <v>-5494008</v>
       </c>
       <c r="J83" s="9">
-        <v>-5494008</v>
+        <v>-10944757</v>
       </c>
       <c r="K83" s="9">
-        <v>-10944757</v>
-      </c>
-      <c r="L83" s="9">
         <v>-5761335</v>
       </c>
+      <c r="L83" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M83" s="9" t="s">
         <v>17</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>20</v>
       </c>
@@ -3253,37 +3253,37 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>-454732</v>
+        <v>-984420</v>
       </c>
       <c r="F84" s="11">
-        <v>-984420</v>
+        <v>-1176957</v>
       </c>
       <c r="G84" s="11">
-        <v>-1176957</v>
+        <v>-2131819</v>
       </c>
       <c r="H84" s="11">
-        <v>-2131819</v>
+        <v>-161479</v>
       </c>
       <c r="I84" s="11">
-        <v>-161479</v>
+        <v>-1172554</v>
       </c>
       <c r="J84" s="11">
-        <v>-1172554</v>
+        <v>-4165083</v>
       </c>
       <c r="K84" s="11">
-        <v>-4165083</v>
+        <v>-1643748</v>
       </c>
       <c r="L84" s="11">
-        <v>-1643748</v>
+        <v>-2030574</v>
       </c>
       <c r="M84" s="11">
-        <v>-2030574</v>
+        <v>-4132348</v>
       </c>
       <c r="N84" s="11">
-        <v>-4132348</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2591639</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>21</v>
       </c>
@@ -3292,37 +3292,37 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>-322058</v>
+        <v>-875479</v>
       </c>
       <c r="F85" s="9">
-        <v>-875479</v>
+        <v>-1200205</v>
       </c>
       <c r="G85" s="9">
-        <v>-1200205</v>
+        <v>-1833055</v>
       </c>
       <c r="H85" s="9">
-        <v>-1833055</v>
+        <v>-665136</v>
       </c>
       <c r="I85" s="9">
-        <v>-665136</v>
+        <v>-1592780</v>
       </c>
       <c r="J85" s="9">
-        <v>-1592780</v>
+        <v>-5719630</v>
       </c>
       <c r="K85" s="9">
-        <v>-5719630</v>
+        <v>-1855473</v>
       </c>
       <c r="L85" s="9">
-        <v>-1855473</v>
+        <v>-2416412</v>
       </c>
       <c r="M85" s="9">
-        <v>-2416412</v>
+        <v>-2197099</v>
       </c>
       <c r="N85" s="9">
-        <v>-2197099</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1167210</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>22</v>
       </c>
@@ -3331,26 +3331,26 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>-570153</v>
+        <v>-318878</v>
       </c>
       <c r="F86" s="11">
-        <v>-318878</v>
+        <v>-986569</v>
       </c>
       <c r="G86" s="11">
-        <v>-986569</v>
+        <v>-935189</v>
       </c>
       <c r="H86" s="11">
-        <v>-935189</v>
+        <v>-322511</v>
       </c>
       <c r="I86" s="11">
-        <v>-322511</v>
+        <v>-729155</v>
       </c>
       <c r="J86" s="11">
-        <v>-729155</v>
-      </c>
-      <c r="K86" s="11">
         <v>-1930632</v>
       </c>
+      <c r="K86" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L86" s="11" t="s">
         <v>17</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>23</v>
       </c>
@@ -3375,17 +3375,17 @@
       <c r="F87" s="9">
         <v>0</v>
       </c>
-      <c r="G87" s="9">
-        <v>0</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I87" s="9">
-        <v>0</v>
-      </c>
-      <c r="J87" s="9" t="s">
-        <v>17</v>
+      <c r="G87" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="9">
+        <v>0</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="9">
+        <v>0</v>
       </c>
       <c r="K87" s="9">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>24</v>
       </c>
@@ -3426,20 +3426,20 @@
       <c r="J88" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K88" s="11" t="s">
-        <v>17</v>
+      <c r="K88" s="11">
+        <v>-1295124</v>
       </c>
       <c r="L88" s="11">
-        <v>-1295124</v>
+        <v>-523081</v>
       </c>
       <c r="M88" s="11">
-        <v>-523081</v>
+        <v>-1883958</v>
       </c>
       <c r="N88" s="11">
-        <v>-1883958</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5210879</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>25</v>
       </c>
@@ -3468,17 +3468,17 @@
       <c r="K89" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L89" s="9" t="s">
-        <v>17</v>
+      <c r="L89" s="9">
+        <v>-12312925</v>
       </c>
       <c r="M89" s="9">
-        <v>-12312925</v>
+        <v>10929388</v>
       </c>
       <c r="N89" s="9">
-        <v>10929388</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-27088098</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>26</v>
       </c>
@@ -3507,54 +3507,54 @@
       <c r="K90" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L90" s="11" t="s">
-        <v>17</v>
+      <c r="L90" s="11">
+        <v>-3896</v>
       </c>
       <c r="M90" s="11">
-        <v>-3896</v>
+        <v>-23226735</v>
       </c>
       <c r="N90" s="11">
-        <v>-23226735</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19671532</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13">
-        <v>-2560474</v>
+        <v>-5418770</v>
       </c>
       <c r="F91" s="13">
-        <v>-5418770</v>
+        <v>-7974485</v>
       </c>
       <c r="G91" s="13">
-        <v>-7974485</v>
+        <v>-7819092</v>
       </c>
       <c r="H91" s="13">
-        <v>-7819092</v>
+        <v>-11120569</v>
       </c>
       <c r="I91" s="13">
-        <v>-11120569</v>
+        <v>-11321043</v>
       </c>
       <c r="J91" s="13">
-        <v>-11321043</v>
+        <v>-24812363</v>
       </c>
       <c r="K91" s="13">
-        <v>-24812363</v>
+        <v>-12774809</v>
       </c>
       <c r="L91" s="13">
-        <v>-12774809</v>
+        <v>-17286888</v>
       </c>
       <c r="M91" s="13">
-        <v>-17286888</v>
+        <v>-20510752</v>
       </c>
       <c r="N91" s="13">
-        <v>-20510752</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-16386294</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3569,7 +3569,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3584,7 +3584,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3599,7 +3599,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>38</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3651,7 +3651,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>15</v>
       </c>
@@ -3660,29 +3660,29 @@
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>0</v>
+        <v>64079</v>
       </c>
       <c r="F97" s="9">
-        <v>64079</v>
+        <v>143661</v>
       </c>
       <c r="G97" s="9">
-        <v>143661</v>
+        <v>0</v>
       </c>
       <c r="H97" s="9">
-        <v>0</v>
+        <v>326612</v>
       </c>
       <c r="I97" s="9">
-        <v>326612</v>
+        <v>-834253</v>
       </c>
       <c r="J97" s="9">
-        <v>-834253</v>
+        <v>-356226</v>
       </c>
       <c r="K97" s="9">
-        <v>-356226</v>
-      </c>
-      <c r="L97" s="9">
         <v>981335</v>
       </c>
+      <c r="L97" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M97" s="9" t="s">
         <v>17</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>29</v>
       </c>
@@ -3704,8 +3704,8 @@
       <c r="F98" s="11">
         <v>0</v>
       </c>
-      <c r="G98" s="11">
-        <v>0</v>
+      <c r="G98" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H98" s="11" t="s">
         <v>17</v>
@@ -3729,7 +3729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>19</v>
       </c>
@@ -3738,29 +3738,29 @@
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
-        <v>4107254</v>
+        <v>7930448</v>
       </c>
       <c r="F99" s="9">
-        <v>7930448</v>
+        <v>12328062</v>
       </c>
       <c r="G99" s="9">
-        <v>12328062</v>
+        <v>5450613</v>
       </c>
       <c r="H99" s="9">
-        <v>5450613</v>
+        <v>6813333</v>
       </c>
       <c r="I99" s="9">
-        <v>6813333</v>
+        <v>907252</v>
       </c>
       <c r="J99" s="9">
-        <v>907252</v>
+        <v>3936716</v>
       </c>
       <c r="K99" s="9">
-        <v>3936716</v>
-      </c>
-      <c r="L99" s="9">
         <v>3665574</v>
       </c>
+      <c r="L99" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M99" s="9" t="s">
         <v>17</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>20</v>
       </c>
@@ -3777,37 +3777,37 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>487022</v>
+        <v>439479</v>
       </c>
       <c r="F100" s="11">
-        <v>439479</v>
+        <v>1273540</v>
       </c>
       <c r="G100" s="11">
-        <v>1273540</v>
+        <v>1748773</v>
       </c>
       <c r="H100" s="11">
-        <v>1748773</v>
+        <v>2330184</v>
       </c>
       <c r="I100" s="11">
-        <v>2330184</v>
+        <v>3452527</v>
       </c>
       <c r="J100" s="11">
-        <v>3452527</v>
+        <v>2395707</v>
       </c>
       <c r="K100" s="11">
-        <v>2395707</v>
+        <v>2681412</v>
       </c>
       <c r="L100" s="11">
-        <v>2681412</v>
+        <v>1534058</v>
       </c>
       <c r="M100" s="11">
-        <v>1534058</v>
+        <v>-562778</v>
       </c>
       <c r="N100" s="11">
-        <v>-562778</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3497541</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>21</v>
       </c>
@@ -3816,37 +3816,37 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>300477</v>
+        <v>240166</v>
       </c>
       <c r="F101" s="9">
-        <v>240166</v>
+        <v>1143147</v>
       </c>
       <c r="G101" s="9">
-        <v>1143147</v>
+        <v>1025996</v>
       </c>
       <c r="H101" s="9">
-        <v>1025996</v>
+        <v>1295459</v>
       </c>
       <c r="I101" s="9">
-        <v>1295459</v>
+        <v>1941164</v>
       </c>
       <c r="J101" s="9">
-        <v>1941164</v>
+        <v>-1134469</v>
       </c>
       <c r="K101" s="9">
-        <v>-1134469</v>
+        <v>653409</v>
       </c>
       <c r="L101" s="9">
-        <v>653409</v>
+        <v>-274293</v>
       </c>
       <c r="M101" s="9">
-        <v>-274293</v>
+        <v>1813614</v>
       </c>
       <c r="N101" s="9">
-        <v>1813614</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1686086</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>22</v>
       </c>
@@ -3855,26 +3855,26 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>877010</v>
+        <v>-318878</v>
       </c>
       <c r="F102" s="11">
-        <v>-318878</v>
+        <v>1183131</v>
       </c>
       <c r="G102" s="11">
-        <v>1183131</v>
+        <v>1579174</v>
       </c>
       <c r="H102" s="11">
-        <v>1579174</v>
+        <v>2470143</v>
       </c>
       <c r="I102" s="11">
-        <v>2470143</v>
+        <v>3156365</v>
       </c>
       <c r="J102" s="11">
-        <v>3156365</v>
-      </c>
-      <c r="K102" s="11">
         <v>1433936</v>
       </c>
+      <c r="K102" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L102" s="11" t="s">
         <v>17</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>23</v>
       </c>
@@ -3899,17 +3899,17 @@
       <c r="F103" s="9">
         <v>0</v>
       </c>
-      <c r="G103" s="9">
-        <v>0</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I103" s="9">
-        <v>0</v>
-      </c>
-      <c r="J103" s="9" t="s">
-        <v>17</v>
+      <c r="G103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="9">
+        <v>0</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" s="9">
+        <v>0</v>
       </c>
       <c r="K103" s="9">
         <v>0</v>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>24</v>
       </c>
@@ -3950,20 +3950,20 @@
       <c r="J104" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K104" s="11" t="s">
-        <v>17</v>
+      <c r="K104" s="11">
+        <v>4481515</v>
       </c>
       <c r="L104" s="11">
-        <v>4481515</v>
+        <v>775399</v>
       </c>
       <c r="M104" s="11">
-        <v>775399</v>
+        <v>3715864</v>
       </c>
       <c r="N104" s="11">
-        <v>3715864</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>122910</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>25</v>
       </c>
@@ -3992,17 +3992,17 @@
       <c r="K105" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L105" s="9" t="s">
-        <v>17</v>
+      <c r="L105" s="9">
+        <v>3892866</v>
       </c>
       <c r="M105" s="9">
-        <v>3892866</v>
+        <v>27378843</v>
       </c>
       <c r="N105" s="9">
-        <v>27378843</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-9495830</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>26</v>
       </c>
@@ -4031,51 +4031,51 @@
       <c r="K106" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L106" s="11" t="s">
-        <v>17</v>
+      <c r="L106" s="11">
+        <v>-4062</v>
       </c>
       <c r="M106" s="11">
-        <v>-4062</v>
+        <v>-22596435</v>
       </c>
       <c r="N106" s="11">
-        <v>-22596435</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20892557</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13">
-        <v>5771763</v>
+        <v>8355294</v>
       </c>
       <c r="F107" s="13">
-        <v>8355294</v>
+        <v>16071541</v>
       </c>
       <c r="G107" s="13">
-        <v>16071541</v>
+        <v>9804556</v>
       </c>
       <c r="H107" s="13">
-        <v>9804556</v>
+        <v>13235731</v>
       </c>
       <c r="I107" s="13">
-        <v>13235731</v>
+        <v>8623055</v>
       </c>
       <c r="J107" s="13">
-        <v>8623055</v>
+        <v>6275664</v>
       </c>
       <c r="K107" s="13">
-        <v>6275664</v>
+        <v>12463245</v>
       </c>
       <c r="L107" s="13">
-        <v>12463245</v>
+        <v>5923968</v>
       </c>
       <c r="M107" s="13">
-        <v>5923968</v>
+        <v>9749108</v>
       </c>
       <c r="N107" s="13">
-        <v>9749108</v>
+        <v>16703264</v>
       </c>
     </row>
   </sheetData>
